--- a/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -133,7 +133,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -143,13 +143,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -563,9 +563,9 @@
   <x:cols>
     <x:col min="1" max="1" width="12.780625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="9.480625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.870625" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="9.480625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="12.195425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.585425" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="12.195425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8">

--- a/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -267,7 +267,7 @@
 </x:table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -550,7 +550,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/InsertingTables.xlsx
@@ -9,14 +9,14 @@
     <x:sheet name="Inserting Tables" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Titles">'Inserting Tables'!$A$1:$A$1,'Inserting Tables'!$C$1:$H$1,'Inserting Tables'!$A$7:$D$7,'Inserting Tables'!$F$7:$H$7</x:definedName>
+    <x:definedName name="Titles">'Inserting Tables'!$A$1:$A$1,'Inserting Tables'!$C$1:$H$1,'Inserting Tables'!$A$7:$D$7,'Inserting Tables'!$F$7:$I$7,'Inserting Tables'!$F$15:$I$15</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <x:si>
     <x:t>From Strings</x:t>
   </x:si>
@@ -72,6 +72,9 @@
     <x:t>House Street</x:t>
   </x:si>
   <x:si>
+    <x:t>Class Type</x:t>
+  </x:si>
+  <x:si>
     <x:t>Name</x:t>
   </x:si>
   <x:si>
@@ -87,6 +90,9 @@
     <x:t>On Elm St.</x:t>
   </x:si>
   <x:si>
+    <x:t>Person</x:t>
+  </x:si>
+  <x:si>
     <x:t>John</x:t>
   </x:si>
   <x:si>
@@ -124,6 +130,9 @@
   </x:si>
   <x:si>
     <x:t>Melanie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From List</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -217,7 +226,20 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="F16:I19" totalsRowShown="0">
+  <x:autoFilter ref="F16:I19"/>
+  <x:tableColumns count="4">
+    <x:tableColumn id="1" name="House Street"/>
+    <x:tableColumn id="2" name="Class Type"/>
+    <x:tableColumn id="3" name="Name"/>
+    <x:tableColumn id="4" name="Age"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:A4" totalsRowShown="0">
   <x:autoFilter ref="A2:A4"/>
   <x:tableColumns count="1">
@@ -227,7 +249,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C2:H5" totalsRowShown="0">
   <x:autoFilter ref="C2:H5"/>
   <x:tableColumns count="6">
@@ -242,7 +264,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A8:D13" totalsRowShown="0">
   <x:autoFilter ref="A8:D13"/>
   <x:tableColumns count="4">
@@ -255,13 +277,14 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F8:H11" totalsRowShown="0">
-  <x:autoFilter ref="F8:H11"/>
-  <x:tableColumns count="3">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F8:I11" totalsRowShown="0">
+  <x:autoFilter ref="F8:I11"/>
+  <x:tableColumns count="4">
     <x:tableColumn id="1" name="House Street"/>
-    <x:tableColumn id="2" name="Name"/>
-    <x:tableColumn id="3" name="Age"/>
+    <x:tableColumn id="2" name="Class Type"/>
+    <x:tableColumn id="3" name="Name"/>
+    <x:tableColumn id="4" name="Age"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -555,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H13"/>
+  <x:dimension ref="A1:I19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -565,10 +588,12 @@
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
     <x:col min="3" max="5" width="12.195425" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="15.585425" style="0" customWidth="1"/>
-    <x:col min="7" max="8" width="12.195425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.385425" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="12.195425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.795425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -581,7 +606,7 @@
       <x:c r="G1" s="1" t="s"/>
       <x:c r="H1" s="1" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -604,7 +629,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
+    <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -618,7 +643,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8">
+    <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -626,7 +651,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8">
+    <x:row r="5" spans="1:9">
       <x:c r="C5" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -646,7 +671,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:8">
+    <x:row r="7" spans="1:9">
       <x:c r="A7" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -658,8 +683,9 @@
       </x:c>
       <x:c r="G7" s="1" t="s"/>
       <x:c r="H7" s="1" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:8">
+      <x:c r="I7" s="1" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -681,119 +707,197 @@
       <x:c r="H8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
+      <x:c r="I8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="2">
         <x:v>36526</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:8">
+    <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D10" s="2">
         <x:v>36527</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8">
+    <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D11" s="2">
         <x:v>36528</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="n">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:8">
+    <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="2">
         <x:v>36529</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:8">
+    <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D13" s="2">
         <x:v>36530</x:v>
       </x:c>
     </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="F15" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s"/>
+      <x:c r="H15" s="1" t="s"/>
+      <x:c r="I15" s="1" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="F16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9">
+      <x:c r="F17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="F18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9">
+      <x:c r="F19" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="n">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="3">
+  <x:mergeCells count="4">
     <x:mergeCell ref="C1:H1"/>
     <x:mergeCell ref="A7:D7"/>
-    <x:mergeCell ref="F7:H7"/>
+    <x:mergeCell ref="F7:I7"/>
+    <x:mergeCell ref="F15:I15"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:tableParts count="4">
+  <x:tableParts count="5">
     <x:tablePart r:id="rId5"/>
     <x:tablePart r:id="rId6"/>
     <x:tablePart r:id="rId7"/>
     <x:tablePart r:id="rId8"/>
+    <x:tablePart r:id="rId9"/>
   </x:tableParts>
 </x:worksheet>
 </file>